--- a/5_Assembly/地震波采集系统/Bill of Materials/Bill of Materials-地震波采集系统.xlsx
+++ b/5_Assembly/地震波采集系统/Bill of Materials/Bill of Materials-地震波采集系统.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\04_study_hardware\earth_hardware_design\TestWave_all_V1\5_Assembly\地震波采集系统\Bill of Materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\04_study_hardware\earth_hardware_design\Simple_Geophone\5_Assembly\地震波采集系统\Bill of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C97F4781-26C0-4EFF-990F-DCC62BB62189}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D440554-5B60-432E-B8E7-76BB2374663A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11535" xr2:uid="{4459D418-1D2C-455D-9056-6C180F850530}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
   <si>
     <t>ProductType</t>
   </si>
@@ -314,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -337,13 +337,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -353,17 +414,193 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD3D3D3"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -374,6 +611,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F68568E-AC32-4EEA-A47F-CE713FE73007}" name="表1" displayName="表1" ref="A1:G29" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="A1:G29" xr:uid="{29620965-CAC9-44CF-A9F2-951288EBA4D4}"/>
+  <sortState ref="A2:G29">
+    <sortCondition ref="B1:B29"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{473CD80D-2A3D-4DC4-9D08-9CC244E4FF90}" name="ProductType" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{CE6E003A-672C-48E2-A6BE-1B1E7B3AC528}" name="ProductIndex" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{200AC3CF-6BD7-472C-8A4D-54929BAC4443}" name="Comment" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{08FD0153-D000-47ED-BBA1-41F448EC35A2}" name="Designator" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D2660745-B0C1-4C43-9E76-CFFFB48ECC78}" name="Value" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{619CDF54-54CA-43F1-9DEE-0D6DA06C5A85}" name="Footprint" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{9E730FCD-6D52-4743-B3E5-D6EA81367723}" name="Quantity" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -675,7 +931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AFD325-143A-4709-91D3-893A60BE80F2}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -685,628 +943,632 @@
     <col min="6" max="7" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1">
+        <v>82</v>
+      </c>
+      <c r="G2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1">
+        <v>32</v>
+      </c>
+      <c r="G3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1">
+        <v>35</v>
+      </c>
+      <c r="G4" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1">
+        <v>27</v>
+      </c>
+      <c r="G6" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="G7" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="1">
+        <v>46</v>
+      </c>
+      <c r="G8" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
+      <c r="A9" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="1">
+        <v>46</v>
+      </c>
+      <c r="G9" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
+      <c r="A10" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="1">
+        <v>46</v>
+      </c>
+      <c r="G10" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
+      <c r="A11" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="1">
+        <v>46</v>
+      </c>
+      <c r="G11" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="1">
-        <v>1</v>
+      <c r="G13" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="1">
-        <v>1</v>
+      <c r="G16" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>39</v>
+      <c r="A17" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="G17" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>39</v>
+      <c r="A18" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="1">
-        <v>10</v>
+        <v>67</v>
+      </c>
+      <c r="G18" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>39</v>
+      <c r="A19" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="G19" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
+      <c r="A20" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="G20" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>39</v>
+      <c r="A21" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2</v>
+        <v>67</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="1">
-        <v>2</v>
+      <c r="G22" s="6">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="1">
+        <v>9</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="1">
-        <v>14</v>
-      </c>
-    </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="1">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E29" s="1"/>
       <c r="F29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="1">
+        <v>24</v>
+      </c>
+      <c r="G29" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1314,5 +1576,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>